--- a/results/mp/logistic/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
   </si>
   <si>
     <t>sc</t>
@@ -79,76 +79,88 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -509,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7226027397260274</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -728,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.313953488372093</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C7">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -828,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1476510067114094</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +890,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,13 +916,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -930,13 +942,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -956,13 +968,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -982,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1034,13 +1046,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1060,13 +1072,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1078,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1086,13 +1098,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1104,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1112,13 +1124,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7421875</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1130,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1164,13 +1176,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1182,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1190,13 +1202,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6571428571428571</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1216,13 +1228,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1242,13 +1254,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1260,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1268,13 +1280,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1286,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1294,13 +1306,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.611764705882353</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1320,13 +1332,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1338,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1346,13 +1358,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5813953488372093</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1372,13 +1384,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5728813559322034</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L28">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M28">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1398,13 +1410,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1424,13 +1436,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5690376569037657</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1442,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1450,13 +1462,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4857142857142857</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1476,13 +1488,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3707865168539326</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1502,25 +1514,129 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3150684931506849</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L34">
+        <v>39</v>
+      </c>
+      <c r="M34">
+        <v>39</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L36">
         <v>23</v>
       </c>
-      <c r="M33">
+      <c r="M36">
         <v>23</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>50</v>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
